--- a/docs/Catalog.xlsx
+++ b/docs/Catalog.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\OneDrive\Documentos\JS_PDF\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CC6093-EEEA-454C-B9A9-D580959FDF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8F38B2-2799-4881-ADEE-1CEDD4F2B457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EA526D3F-B726-4108-9ADF-2A6FD73FEC3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Coapa" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coapa!$A$1:$A$484</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,59 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Codigo</t>
   </si>
   <si>
-    <t>4EX051975H</t>
-  </si>
-  <si>
     <t>2EX0620135G1</t>
   </si>
   <si>
-    <t>XRB1216360</t>
-  </si>
-  <si>
-    <t>1RT175SVP16</t>
-  </si>
-  <si>
-    <t>1NB280GZC</t>
-  </si>
-  <si>
-    <t>1RB0122298G8</t>
-  </si>
-  <si>
-    <t>1BF012265V</t>
-  </si>
-  <si>
-    <t>1BF012270V</t>
-  </si>
-  <si>
-    <t>7SB0122298G5</t>
-  </si>
-  <si>
-    <t>1BK210GPP1</t>
-  </si>
-  <si>
-    <t>1SG120GVP2</t>
-  </si>
-  <si>
-    <t>1BS122153G</t>
-  </si>
-  <si>
-    <t>1BL1121178S</t>
-  </si>
-  <si>
-    <t>1BL1121178G</t>
-  </si>
-  <si>
-    <t>1RZ180GVP1</t>
-  </si>
-  <si>
-    <t>4BU0718375H</t>
-  </si>
-  <si>
     <t>4NX1018205H1</t>
   </si>
   <si>
@@ -95,42 +53,9 @@
     <t>2RT1018210G72</t>
   </si>
   <si>
-    <t>1RF0621162S1</t>
-  </si>
-  <si>
-    <t>1RF0721199G1</t>
-  </si>
-  <si>
-    <t>4NU275HZC</t>
-  </si>
-  <si>
-    <t>1EB041SPV1</t>
-  </si>
-  <si>
-    <t>2BX435IPP1</t>
-  </si>
-  <si>
-    <t>3NR498SZC</t>
-  </si>
-  <si>
     <t>1SB198GLC1</t>
   </si>
   <si>
-    <t>1SB198GLC3</t>
-  </si>
-  <si>
-    <t>1NL098GNC1</t>
-  </si>
-  <si>
-    <t>1NS275GPP1</t>
-  </si>
-  <si>
-    <t>2SU0621315G</t>
-  </si>
-  <si>
-    <t>4NU0621298H1</t>
-  </si>
-  <si>
     <t>1PJ042110S2</t>
   </si>
   <si>
@@ -143,12 +68,6 @@
     <t>1PJ042110S7</t>
   </si>
   <si>
-    <t>1PJ042110S8</t>
-  </si>
-  <si>
-    <t>1NK012075G</t>
-  </si>
-  <si>
     <t>1RD1120190T7</t>
   </si>
   <si>
@@ -158,112 +77,154 @@
     <t>1RK1120165S1</t>
   </si>
   <si>
-    <t>1NS1220145R2</t>
-  </si>
-  <si>
-    <t>2EX1220240G3</t>
-  </si>
-  <si>
-    <t>1RK0121250G9</t>
-  </si>
-  <si>
-    <t>1RK0121145S8</t>
-  </si>
-  <si>
-    <t>1RK0121145S0</t>
-  </si>
-  <si>
-    <t>1EH112081B</t>
-  </si>
-  <si>
-    <t>1RB0620180G7</t>
-  </si>
-  <si>
-    <t>1RB0620180R7</t>
-  </si>
-  <si>
-    <t>1RK0720225G9</t>
-  </si>
-  <si>
-    <t>4RU0320155H6</t>
-  </si>
-  <si>
-    <t>1NK0320150S1</t>
-  </si>
-  <si>
-    <t>1RK0220290G63</t>
-  </si>
-  <si>
-    <t>2BX0120285G</t>
-  </si>
-  <si>
-    <t>1NS0120140R</t>
-  </si>
-  <si>
-    <t>2NU1119270G1</t>
-  </si>
-  <si>
-    <t>2NU1119270G2</t>
-  </si>
-  <si>
-    <t>2SX440RVP1</t>
-  </si>
-  <si>
-    <t>2RU1019490G9</t>
-  </si>
-  <si>
-    <t>2RM1019299G7</t>
-  </si>
-  <si>
-    <t>2RR1019470B7</t>
-  </si>
-  <si>
-    <t>2NP480RCP1</t>
-  </si>
-  <si>
-    <t>1NR330SCP1</t>
-  </si>
-  <si>
-    <t>1NC798RCP1</t>
-  </si>
-  <si>
-    <t>1NR295SPP1</t>
-  </si>
-  <si>
-    <t>1NS298VPP1</t>
-  </si>
-  <si>
-    <t>4BX0919598H</t>
-  </si>
-  <si>
-    <t>1NE0322115G</t>
-  </si>
-  <si>
-    <t>1SE0919398R</t>
-  </si>
-  <si>
-    <t>2RU0619205B8</t>
-  </si>
-  <si>
-    <t>3NB0519235S</t>
-  </si>
-  <si>
-    <t>1NE0519398S</t>
-  </si>
-  <si>
-    <t>2NX031998R</t>
-  </si>
-  <si>
-    <t>1SE0319480G</t>
-  </si>
-  <si>
-    <t>1NR0319490B</t>
-  </si>
-  <si>
-    <t>1SE0319320S</t>
-  </si>
-  <si>
-    <t>1SB0319375G2</t>
+    <t>2CF0522080G</t>
+  </si>
+  <si>
+    <t>2EX0920124G2</t>
+  </si>
+  <si>
+    <t>3ER101980R</t>
+  </si>
+  <si>
+    <t>1NS0620105R</t>
+  </si>
+  <si>
+    <t>2ER330VCP1</t>
+  </si>
+  <si>
+    <t>1RB0122199S9</t>
+  </si>
+  <si>
+    <t>1RT0120198S8</t>
+  </si>
+  <si>
+    <t>1RT0120220S9</t>
+  </si>
+  <si>
+    <t>1RT1119285O2</t>
+  </si>
+  <si>
+    <t>1RT1119255O6</t>
+  </si>
+  <si>
+    <t>1RK0120105U81</t>
+  </si>
+  <si>
+    <t>1RK0120105U92</t>
+  </si>
+  <si>
+    <t>1RK0120105U71</t>
+  </si>
+  <si>
+    <t>1RK0120105U91</t>
+  </si>
+  <si>
+    <t>1RK0120105U61</t>
+  </si>
+  <si>
+    <t>1RK0220198S91</t>
+  </si>
+  <si>
+    <t>1RD1120190T0</t>
+  </si>
+  <si>
+    <t>1RD1120190T8</t>
+  </si>
+  <si>
+    <t>1RK1120165S9</t>
+  </si>
+  <si>
+    <t>1RT1120270U0</t>
+  </si>
+  <si>
+    <t>2EB022160G</t>
+  </si>
+  <si>
+    <t>1RB0122199S81</t>
+  </si>
+  <si>
+    <t>7SB0122298G2</t>
+  </si>
+  <si>
+    <t>2EX1121172G1</t>
+  </si>
+  <si>
+    <t>2EX1119112I</t>
+  </si>
+  <si>
+    <t>2EX1021165G3</t>
+  </si>
+  <si>
+    <t>2EX1121172G</t>
+  </si>
+  <si>
+    <t>2EX0122125G2</t>
+  </si>
+  <si>
+    <t>1EV145GVP1</t>
+  </si>
+  <si>
+    <t>2EF1221162G</t>
+  </si>
+  <si>
+    <t>2EX101975G</t>
+  </si>
+  <si>
+    <t>2EX1121205G</t>
+  </si>
+  <si>
+    <t>2EX112098G8</t>
+  </si>
+  <si>
+    <t>1RF0621162S0</t>
+  </si>
+  <si>
+    <t>1RB0721195G8</t>
+  </si>
+  <si>
+    <t>1RB0721195G1</t>
+  </si>
+  <si>
+    <t>1RB0721195G2</t>
+  </si>
+  <si>
+    <t>1RB0721195G3</t>
+  </si>
+  <si>
+    <t>2EX0721167G1</t>
+  </si>
+  <si>
+    <t>2EX0521116G3</t>
+  </si>
+  <si>
+    <t>1RK0120105U02</t>
+  </si>
+  <si>
+    <t>2EX1220220G5</t>
+  </si>
+  <si>
+    <t>1RK0121250G8</t>
+  </si>
+  <si>
+    <t>1RT0120260G1</t>
+  </si>
+  <si>
+    <t>2EX112098G9</t>
+  </si>
+  <si>
+    <t>1RK0220290G71</t>
+  </si>
+  <si>
+    <t>1RK0220198S01</t>
+  </si>
+  <si>
+    <t>1RK0220198S11</t>
+  </si>
+  <si>
+    <t>1RK0220198S21</t>
+  </si>
+  <si>
+    <t>1RO051995R6</t>
   </si>
 </sst>
 </file>
@@ -615,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57299CE7-380D-4AA2-B187-C8EC68D13DB7}">
-  <dimension ref="A1:A77"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A77"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,382 +594,312 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Catalog.xlsx
+++ b/docs/Catalog.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\OneDrive\Documentos\JS_PDF\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elements Of Steel\JS_PDF\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B61A4B8-7DFC-48E7-9DC4-71ACAAD84CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232FAF9F-49AB-4AF9-A3AD-4828D4383DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EA526D3F-B726-4108-9ADF-2A6FD73FEC3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EA526D3F-B726-4108-9ADF-2A6FD73FEC3C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Prueba" sheetId="1" r:id="rId1"/>
+    <sheet name="CDMX_MARCA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prueba!$A$1:$A$484</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CDMX_MARCA!$A$1:$A$478</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,12 +36,666 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>Codigo</t>
   </si>
   <si>
-    <t>1ak072145v3</t>
+    <t>3BB0221275S</t>
+  </si>
+  <si>
+    <t>3BB0920372G</t>
+  </si>
+  <si>
+    <t>3BB0721270R</t>
+  </si>
+  <si>
+    <t>3BB0322430S</t>
+  </si>
+  <si>
+    <t>3BB0921270G1</t>
+  </si>
+  <si>
+    <t>3BB0121270G</t>
+  </si>
+  <si>
+    <t>3BF1121372G</t>
+  </si>
+  <si>
+    <t>3BS0921330G</t>
+  </si>
+  <si>
+    <t>3BF1121372R</t>
+  </si>
+  <si>
+    <t>3BF1221398G2</t>
+  </si>
+  <si>
+    <t>3BF1221398S1</t>
+  </si>
+  <si>
+    <t>3BB0221375G</t>
+  </si>
+  <si>
+    <t>3BF0521390G</t>
+  </si>
+  <si>
+    <t>3BF0521390R</t>
+  </si>
+  <si>
+    <t>3BF0821275S</t>
+  </si>
+  <si>
+    <t>3BF0821275S1</t>
+  </si>
+  <si>
+    <t>3BO0522320S</t>
+  </si>
+  <si>
+    <t>3BO0622598S1</t>
+  </si>
+  <si>
+    <t>3BF1121395R</t>
+  </si>
+  <si>
+    <t>3BF0821360B</t>
+  </si>
+  <si>
+    <t>3BO0522320G</t>
+  </si>
+  <si>
+    <t>3BO0622340G</t>
+  </si>
+  <si>
+    <t>3BO0622598S</t>
+  </si>
+  <si>
+    <t>3BF0821275G1</t>
+  </si>
+  <si>
+    <t>3BO0322380I1</t>
+  </si>
+  <si>
+    <t>3BO0522320I1</t>
+  </si>
+  <si>
+    <t>3BO0322350S1</t>
+  </si>
+  <si>
+    <t>3BO0322380I</t>
+  </si>
+  <si>
+    <t>3BO0522320G1</t>
+  </si>
+  <si>
+    <t>3BO0622598G</t>
+  </si>
+  <si>
+    <t>3BO0622598G1</t>
+  </si>
+  <si>
+    <t>3BF0921380R</t>
+  </si>
+  <si>
+    <t>3BF1121395G</t>
+  </si>
+  <si>
+    <t>3BO0522285G1</t>
+  </si>
+  <si>
+    <t>3BB0421375I1</t>
+  </si>
+  <si>
+    <t>3BF0621460I</t>
+  </si>
+  <si>
+    <t>3BB072199V2</t>
+  </si>
+  <si>
+    <t>3BF0821275G</t>
+  </si>
+  <si>
+    <t>3BF0821360I1</t>
+  </si>
+  <si>
+    <t>3BF0921330I2</t>
+  </si>
+  <si>
+    <t>3BF1121425G</t>
+  </si>
+  <si>
+    <t>3BF1121325I</t>
+  </si>
+  <si>
+    <t>3BF1221398R1</t>
+  </si>
+  <si>
+    <t>3BO0322380G</t>
+  </si>
+  <si>
+    <t>3BO0322366G</t>
+  </si>
+  <si>
+    <t>3BO0422350G</t>
+  </si>
+  <si>
+    <t>3BO0622460G</t>
+  </si>
+  <si>
+    <t>3BO0622340S</t>
+  </si>
+  <si>
+    <t>3BB1220380I2</t>
+  </si>
+  <si>
+    <t>3BB0121370S</t>
+  </si>
+  <si>
+    <t>3BB0221398G1</t>
+  </si>
+  <si>
+    <t>3BB0221320G</t>
+  </si>
+  <si>
+    <t>3BL0721248G</t>
+  </si>
+  <si>
+    <t>3BF0821360I3</t>
+  </si>
+  <si>
+    <t>3BF0921330I1</t>
+  </si>
+  <si>
+    <t>3BB1021275G</t>
+  </si>
+  <si>
+    <t>3BF1021390G</t>
+  </si>
+  <si>
+    <t>3BF0122298I1</t>
+  </si>
+  <si>
+    <t>3BF0122298I2</t>
+  </si>
+  <si>
+    <t>3BO0422280R1</t>
+  </si>
+  <si>
+    <t>3BO0522285S1</t>
+  </si>
+  <si>
+    <t>3BO0522285R1</t>
+  </si>
+  <si>
+    <t>3BO0622340R</t>
+  </si>
+  <si>
+    <t>3EF102130G3</t>
+  </si>
+  <si>
+    <t>3EL072168G</t>
+  </si>
+  <si>
+    <t>3EF102130S2</t>
+  </si>
+  <si>
+    <t>3EO0522095S</t>
+  </si>
+  <si>
+    <t>3EF092172G1</t>
+  </si>
+  <si>
+    <t>3EB0622550G</t>
+  </si>
+  <si>
+    <t>3EB0721175S1</t>
+  </si>
+  <si>
+    <t>3EF082162G</t>
+  </si>
+  <si>
+    <t>3EF092145S</t>
+  </si>
+  <si>
+    <t>3EF0222128G</t>
+  </si>
+  <si>
+    <t>3NB0221235S</t>
+  </si>
+  <si>
+    <t>3NF0222150G</t>
+  </si>
+  <si>
+    <t>3NF0521265S</t>
+  </si>
+  <si>
+    <t>3NF0222150R</t>
+  </si>
+  <si>
+    <t>6NR1121390H</t>
+  </si>
+  <si>
+    <t>3NF0521298S1</t>
+  </si>
+  <si>
+    <t>3NF0521335G2</t>
+  </si>
+  <si>
+    <t>3NF0521335G1</t>
+  </si>
+  <si>
+    <t>6NU0622190G</t>
+  </si>
+  <si>
+    <t>3NB0920285S</t>
+  </si>
+  <si>
+    <t>3NF0521298S4</t>
+  </si>
+  <si>
+    <t>3NF0521298S9</t>
+  </si>
+  <si>
+    <t>3NF0521298S6</t>
+  </si>
+  <si>
+    <t>3NL0721198I</t>
+  </si>
+  <si>
+    <t>3NF0921395I1</t>
+  </si>
+  <si>
+    <t>3NB0622575S</t>
+  </si>
+  <si>
+    <t>3NB0622575G</t>
+  </si>
+  <si>
+    <t>3NF0521298S8</t>
+  </si>
+  <si>
+    <t>3NB0422299S1</t>
+  </si>
+  <si>
+    <t>3NF0521298S2</t>
+  </si>
+  <si>
+    <t>3NF0222185G</t>
+  </si>
+  <si>
+    <t>3NF0222199R</t>
+  </si>
+  <si>
+    <t>3NB0422335G</t>
+  </si>
+  <si>
+    <t>3PB092045SH</t>
+  </si>
+  <si>
+    <t>3PB092045SB</t>
+  </si>
+  <si>
+    <t>3PB092045SJ</t>
+  </si>
+  <si>
+    <t>3PB092045SD</t>
+  </si>
+  <si>
+    <t>3PB092045SP</t>
+  </si>
+  <si>
+    <t>3PB092045SY</t>
+  </si>
+  <si>
+    <t>3PB092045SK</t>
+  </si>
+  <si>
+    <t>3PB092045SV</t>
+  </si>
+  <si>
+    <t>3PB092045SF</t>
+  </si>
+  <si>
+    <t>3PB092045SG</t>
+  </si>
+  <si>
+    <t>3PB092045SN</t>
+  </si>
+  <si>
+    <t>3PB092045SO</t>
+  </si>
+  <si>
+    <t>3PB092045SC</t>
+  </si>
+  <si>
+    <t>3PB092045SR</t>
+  </si>
+  <si>
+    <t>3PB092045S</t>
+  </si>
+  <si>
+    <t>3PB092045SE</t>
+  </si>
+  <si>
+    <t>3PF062135G</t>
+  </si>
+  <si>
+    <t>3PO0322100S1</t>
+  </si>
+  <si>
+    <t>3RR012190S41</t>
+  </si>
+  <si>
+    <t>3RB0721204R7</t>
+  </si>
+  <si>
+    <t>3RR012190S51</t>
+  </si>
+  <si>
+    <t>3RB0721204S7</t>
+  </si>
+  <si>
+    <t>3RB0721204G7</t>
+  </si>
+  <si>
+    <t>3RB0721204S8</t>
+  </si>
+  <si>
+    <t>3RB0721204G8</t>
+  </si>
+  <si>
+    <t>3RB0721204R8</t>
+  </si>
+  <si>
+    <t>3RB0622140S6</t>
+  </si>
+  <si>
+    <t>3RF1121198G6</t>
+  </si>
+  <si>
+    <t>3RR012195S6</t>
+  </si>
+  <si>
+    <t>6RR1220175R6</t>
+  </si>
+  <si>
+    <t>3RR012195S7</t>
+  </si>
+  <si>
+    <t>3RF1021210R8</t>
+  </si>
+  <si>
+    <t>3RF1121198S6</t>
+  </si>
+  <si>
+    <t>3RB0622140S7</t>
+  </si>
+  <si>
+    <t>3RB0222142G6</t>
+  </si>
+  <si>
+    <t>3RR012195S8</t>
+  </si>
+  <si>
+    <t>3RF1121198R6</t>
+  </si>
+  <si>
+    <t>3RO0322185I7</t>
+  </si>
+  <si>
+    <t>3RO0422182R7</t>
+  </si>
+  <si>
+    <t>3RB0622140S8</t>
+  </si>
+  <si>
+    <t>3RB0921110G8</t>
+  </si>
+  <si>
+    <t>3RF1121198R8</t>
+  </si>
+  <si>
+    <t>3RF1121198S9</t>
+  </si>
+  <si>
+    <t>3RO0322185I71</t>
+  </si>
+  <si>
+    <t>3RO0422182S8</t>
+  </si>
+  <si>
+    <t>3RB1220198G8</t>
+  </si>
+  <si>
+    <t>6RR1220175R8</t>
+  </si>
+  <si>
+    <t>3RF1121198G7</t>
+  </si>
+  <si>
+    <t>3RF1121198S7</t>
+  </si>
+  <si>
+    <t>3RO0422182R8</t>
+  </si>
+  <si>
+    <t>3RO0422182G8</t>
+  </si>
+  <si>
+    <t>3RB0622478G6</t>
+  </si>
+  <si>
+    <t>3RB0121130S8</t>
+  </si>
+  <si>
+    <t>3RF1121198R9</t>
+  </si>
+  <si>
+    <t>3RO0322155G7</t>
+  </si>
+  <si>
+    <t>3RO0422182G7</t>
+  </si>
+  <si>
+    <t>3RB0622478G8</t>
+  </si>
+  <si>
+    <t>3RB122098S1</t>
+  </si>
+  <si>
+    <t>6RR1220175R7</t>
+  </si>
+  <si>
+    <t>3RF0621180S8</t>
+  </si>
+  <si>
+    <t>3RF0821188S7</t>
+  </si>
+  <si>
+    <t>3RB1021120R8</t>
+  </si>
+  <si>
+    <t>3RF1121198G9</t>
+  </si>
+  <si>
+    <t>3RF1121198R7</t>
+  </si>
+  <si>
+    <t>3RF1121198S8</t>
+  </si>
+  <si>
+    <t>3RO0322155G8</t>
+  </si>
+  <si>
+    <t>3RO0322185G7</t>
+  </si>
+  <si>
+    <t>3RO0422182S7</t>
+  </si>
+  <si>
+    <t>3SB0221398S3</t>
+  </si>
+  <si>
+    <t>3SB0221398G3</t>
+  </si>
+  <si>
+    <t>3SO0622399G7</t>
+  </si>
+  <si>
+    <t>3SO0622399S5</t>
+  </si>
+  <si>
+    <t>3SO0622399R2</t>
+  </si>
+  <si>
+    <t>3SO0622399S6</t>
+  </si>
+  <si>
+    <t>3SF0521398G2</t>
+  </si>
+  <si>
+    <t>3SF0521398R</t>
+  </si>
+  <si>
+    <t>3SO0422398G5</t>
+  </si>
+  <si>
+    <t>3SO0622399G2</t>
+  </si>
+  <si>
+    <t>3SB0221380T</t>
+  </si>
+  <si>
+    <t>3SF0122398G4</t>
+  </si>
+  <si>
+    <t>3SO0522398G4</t>
+  </si>
+  <si>
+    <t>3SO0622399G3</t>
+  </si>
+  <si>
+    <t>3SF0621358S</t>
+  </si>
+  <si>
+    <t>3SF1221398S1</t>
+  </si>
+  <si>
+    <t>3SO0322398G</t>
+  </si>
+  <si>
+    <t>3SO0522398G1</t>
+  </si>
+  <si>
+    <t>3SO0522398S1</t>
+  </si>
+  <si>
+    <t>3SF0921398S1</t>
+  </si>
+  <si>
+    <t>3SF0122398R2</t>
+  </si>
+  <si>
+    <t>3SO0322398S5</t>
+  </si>
+  <si>
+    <t>3SF1121399I1</t>
+  </si>
+  <si>
+    <t>3SF1121399S2</t>
+  </si>
+  <si>
+    <t>3SF1221398G5</t>
+  </si>
+  <si>
+    <t>3SO0522398G7</t>
+  </si>
+  <si>
+    <t>3SO0622399S1</t>
+  </si>
+  <si>
+    <t>3SO0622399R1</t>
+  </si>
+  <si>
+    <t>3SB0121358I1</t>
+  </si>
+  <si>
+    <t>3SB0721520G1</t>
+  </si>
+  <si>
+    <t>3SF0721385G2</t>
+  </si>
+  <si>
+    <t>3SF0821398S7</t>
+  </si>
+  <si>
+    <t>3SF1221398I0</t>
+  </si>
+  <si>
+    <t>3SO0322390R</t>
+  </si>
+  <si>
+    <t>3SO0422398G</t>
+  </si>
+  <si>
+    <t>3SO0422398S1</t>
+  </si>
+  <si>
+    <t>3SO0522398G6</t>
+  </si>
+  <si>
+    <t>3SO0622399S4</t>
+  </si>
+  <si>
+    <t>3SB0321375S2</t>
+  </si>
+  <si>
+    <t>3SF0521398G1</t>
+  </si>
+  <si>
+    <t>3SB0621425S</t>
+  </si>
+  <si>
+    <t>3SF0621358G</t>
+  </si>
+  <si>
+    <t>3SF0621360G1</t>
+  </si>
+  <si>
+    <t>3SF0721320R</t>
+  </si>
+  <si>
+    <t>3SF0921392S1</t>
+  </si>
+  <si>
+    <t>3SF1121399G5</t>
+  </si>
+  <si>
+    <t>3SF1121398G9</t>
+  </si>
+  <si>
+    <t>3SF1121399G6</t>
+  </si>
+  <si>
+    <t>3SF1121399G7</t>
+  </si>
+  <si>
+    <t>3SF1221398T1</t>
+  </si>
+  <si>
+    <t>3SF1221398R1</t>
+  </si>
+  <si>
+    <t>3SO0322398G3</t>
+  </si>
+  <si>
+    <t>3SO0322398S8</t>
+  </si>
+  <si>
+    <t>3SO0422398I</t>
+  </si>
+  <si>
+    <t>3SO0622398S</t>
   </si>
 </sst>
 </file>
@@ -83,7 +737,48 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -393,29 +1088,1128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57299CE7-380D-4AA2-B187-C8EC68D13DB7}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A362">
+    <cfRule type="duplicateValues" dxfId="3" priority="183"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G188">
+    <cfRule type="duplicateValues" dxfId="2" priority="185"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A188">
+    <cfRule type="duplicateValues" dxfId="1" priority="187"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A478">
+    <cfRule type="duplicateValues" dxfId="0" priority="206"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>